--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A61F8FA-31E6-4E5B-863F-160191983CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E3469D-A74F-4D3D-998F-0B3397460197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>ReadNotification</t>
   </si>
@@ -54,18 +54,9 @@
     <t>Pr(FarAway|NeedReminder)</t>
   </si>
   <si>
-    <t>Pr(AverageDistance|NeedReminder)</t>
-  </si>
-  <si>
     <t>Pr(VeryClose|NeedReminder)</t>
   </si>
   <si>
-    <t>~NeedReminder</t>
-  </si>
-  <si>
-    <t>NeedReminder</t>
-  </si>
-  <si>
     <t>Pr(~ReadNotification|NeedReminder)</t>
   </si>
   <si>
@@ -90,13 +81,28 @@
     <t>Preferences:</t>
   </si>
   <si>
-    <t>Busyness:</t>
-  </si>
-  <si>
     <t>ReadNotifcation:</t>
   </si>
   <si>
     <t>TimeUnilEvent:</t>
+  </si>
+  <si>
+    <t>NeedReminder = None</t>
+  </si>
+  <si>
+    <t>Business:</t>
+  </si>
+  <si>
+    <t>Pr(MediumDistance|NeedReminder)</t>
+  </si>
+  <si>
+    <t>Unsure about the following:</t>
+  </si>
+  <si>
+    <t>NeedReminder = Email</t>
+  </si>
+  <si>
+    <t>NeedReminder = Reminder</t>
   </si>
 </sst>
 </file>
@@ -152,19 +158,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="B3:C4" totalsRowShown="0">
-  <autoFilter ref="B3:C4" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7110FBC9-9E40-49FC-871A-F08C5D9FE788}" name="~NeedReminder"/>
-    <tableColumn id="2" xr3:uid="{F8B689E5-AC8A-4F44-ABEA-B8AF4AC8D64A}" name="NeedReminder"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="A3:C4" totalsRowShown="0">
+  <autoFilter ref="A3:C4" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7110FBC9-9E40-49FC-871A-F08C5D9FE788}" name="NeedReminder = None"/>
+    <tableColumn id="2" xr3:uid="{F8B689E5-AC8A-4F44-ABEA-B8AF4AC8D64A}" name="NeedReminder = Email"/>
+    <tableColumn id="3" xr3:uid="{A687A27B-8C0A-4F5B-B293-6C641F87656A}" name="NeedReminder = Reminder"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}" name="Table2" displayName="Table2" ref="A8:D10" totalsRowShown="0">
-  <autoFilter ref="A8:D10" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}" name="Table2" displayName="Table2" ref="A8:D11" totalsRowShown="0">
+  <autoFilter ref="A8:D11" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E2735160-26F2-4819-BFBD-32D7C7696789}" name="EventImportance"/>
     <tableColumn id="2" xr3:uid="{6E950025-6DAD-46B4-B771-6446C53EFA41}" name="Pr(NotImportant|NeedReminder)"/>
@@ -176,12 +183,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}" name="Table3" displayName="Table3" ref="A13:D15" totalsRowShown="0">
-  <autoFilter ref="A13:D15" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}" name="Table3" displayName="Table3" ref="A14:D17" totalsRowShown="0">
+  <autoFilter ref="A14:D17" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3F5A46F7-FD35-4570-A81C-B5C2AE707BCE}" name="TimeUnilEvent:"/>
     <tableColumn id="2" xr3:uid="{A01F20E1-CD22-49F3-8F7B-B86075BF817B}" name="Pr(FarAway|NeedReminder)"/>
-    <tableColumn id="3" xr3:uid="{77EBDE7D-A11B-49CF-9717-F83E175904F0}" name="Pr(AverageDistance|NeedReminder)"/>
+    <tableColumn id="3" xr3:uid="{77EBDE7D-A11B-49CF-9717-F83E175904F0}" name="Pr(MediumDistance|NeedReminder)"/>
     <tableColumn id="4" xr3:uid="{663FC72F-21F1-433E-BF41-3C0DAC2F4B1F}" name="Pr(VeryClose|NeedReminder)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -189,8 +196,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1CB3541E-31C6-459B-955B-9A6CD5410E9B}" name="Table4" displayName="Table4" ref="A18:C20" totalsRowShown="0">
-  <autoFilter ref="A18:C20" xr:uid="{1CB3541E-31C6-459B-955B-9A6CD5410E9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1CB3541E-31C6-459B-955B-9A6CD5410E9B}" name="Table4" displayName="Table4" ref="A27:C30" totalsRowShown="0">
+  <autoFilter ref="A27:C30" xr:uid="{1CB3541E-31C6-459B-955B-9A6CD5410E9B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BDE25C98-DC23-4929-BDC7-B8E1E6A2C29F}" name="ReadNotifcation:"/>
     <tableColumn id="2" xr3:uid="{1FA0DA08-1621-4222-83DA-528D2BFD9C63}" name="Pr(~ReadNotification|NeedReminder)"/>
@@ -201,10 +208,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{746063F1-21A7-4AE8-BB2D-F55C0C71F2EE}" name="Table5" displayName="Table5" ref="A23:C25" totalsRowShown="0">
-  <autoFilter ref="A23:C25" xr:uid="{746063F1-21A7-4AE8-BB2D-F55C0C71F2EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{746063F1-21A7-4AE8-BB2D-F55C0C71F2EE}" name="Table5" displayName="Table5" ref="A33:C35" totalsRowShown="0">
+  <autoFilter ref="A33:C35" xr:uid="{746063F1-21A7-4AE8-BB2D-F55C0C71F2EE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5958F1B1-67DE-4462-9B57-299642EAD041}" name="Busyness:"/>
+    <tableColumn id="1" xr3:uid="{5958F1B1-67DE-4462-9B57-299642EAD041}" name="Business:"/>
     <tableColumn id="2" xr3:uid="{11D99B2E-2AE0-4542-90CA-8CA5C46D4E55}" name="Pr(~Busy|ReadNotification)"/>
     <tableColumn id="3" xr3:uid="{BDC2DFCC-08EB-4E7D-834D-5729A39FC834}" name="Pr(Busy|ReadNotification)"/>
   </tableColumns>
@@ -213,8 +220,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}" name="Table6" displayName="Table6" ref="A28:C30" totalsRowShown="0">
-  <autoFilter ref="A28:C30" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}" name="Table6" displayName="Table6" ref="A38:C41" totalsRowShown="0">
+  <autoFilter ref="A38:C41" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{972A3304-3633-4EC8-94C1-43B9B2DCB076}" name="Preferences:"/>
     <tableColumn id="2" xr3:uid="{C4B907E5-3F49-40E5-8D85-D8CAA37853D7}" name="Pr(~WantReminder|NeedReminder)"/>
@@ -521,36 +528,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
-  <dimension ref="A3:D30"/>
+  <dimension ref="A3:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.33333299999999999</v>
+      </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,171 +583,214 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
+        <v>0.45</v>
+      </c>
+      <c r="D10">
         <v>0.3</v>
       </c>
-      <c r="D10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0.05</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>0.7</v>
-      </c>
-      <c r="C14">
-        <v>0.2</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
         <v>0.2</v>
       </c>
       <c r="D15">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+      <c r="C17">
+        <v>0.03</v>
+      </c>
+      <c r="D17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="B19">
-        <v>0.95</v>
-      </c>
-      <c r="C19">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>0.2</v>
-      </c>
-      <c r="C20">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>0.1</v>
-      </c>
-      <c r="C24">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0.8</v>
-      </c>
-      <c r="C25">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.95</v>
+      </c>
+      <c r="C28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B29">
+        <v>0.2</v>
+      </c>
+      <c r="C29">
         <v>0.8</v>
       </c>
-      <c r="C29">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0.8</v>
+      </c>
+      <c r="C35">
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>0.8</v>
+      </c>
+      <c r="C39">
         <v>0.2</v>
       </c>
-      <c r="C30">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>0.2</v>
+      </c>
+      <c r="C40">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Desktop\COSC 329\Project\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A61F8FA-31E6-4E5B-863F-160191983CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E587C82-CFFC-4DE3-90E6-F792BEC9DABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
@@ -34,53 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
-  <si>
-    <t>ReadNotification</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>EventImportance</t>
   </si>
   <si>
-    <t>Pr(NotImportant|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(Important|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(VeryImportant|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(FarAway|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(AverageDistance|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(VeryClose|NeedReminder)</t>
-  </si>
-  <si>
-    <t>~NeedReminder</t>
-  </si>
-  <si>
-    <t>NeedReminder</t>
-  </si>
-  <si>
-    <t>Pr(~ReadNotification|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(ReadNotification|NeedReminder)</t>
-  </si>
-  <si>
-    <t>~ReadNotification</t>
-  </si>
-  <si>
-    <t>Pr(~Busy|ReadNotification)</t>
-  </si>
-  <si>
-    <t>Pr(Busy|ReadNotification)</t>
-  </si>
-  <si>
     <t>Pr(~WantReminder|NeedReminder)</t>
   </si>
   <si>
@@ -90,13 +48,61 @@
     <t>Preferences:</t>
   </si>
   <si>
+    <t>TimeUnilEvent:</t>
+  </si>
+  <si>
+    <t>NeedReminder = False</t>
+  </si>
+  <si>
+    <t>NeedReminder = True</t>
+  </si>
+  <si>
     <t>Busyness:</t>
   </si>
   <si>
-    <t>ReadNotifcation:</t>
-  </si>
-  <si>
-    <t>TimeUnilEvent:</t>
+    <t>Pr(Busy|NeedReminder)</t>
+  </si>
+  <si>
+    <t>Pr(NotBusy|NeedReminder)</t>
+  </si>
+  <si>
+    <t>Pr(VeryBusy|NeedReminder)</t>
+  </si>
+  <si>
+    <t>Urgent = False</t>
+  </si>
+  <si>
+    <t>Urgent = True</t>
+  </si>
+  <si>
+    <t>Pr(NotImportant|Urgent)</t>
+  </si>
+  <si>
+    <t>Pr(Important|Urgent)</t>
+  </si>
+  <si>
+    <t>Pr(VeryImportant|Urgent)</t>
+  </si>
+  <si>
+    <t>Pr(FarAway|Urgent)</t>
+  </si>
+  <si>
+    <t>Pr(MediumDistance|Urgent)</t>
+  </si>
+  <si>
+    <t>Pr(VeryClose|Urgent)</t>
+  </si>
+  <si>
+    <t>CheckedCalendarRecently:</t>
+  </si>
+  <si>
+    <t>Pr(WithinMonth|NeedReminder)</t>
+  </si>
+  <si>
+    <t>Pr(WithinWeek|NeedReminder)</t>
+  </si>
+  <si>
+    <t>Pr(WithinDay|NeedReminder)</t>
   </si>
 </sst>
 </file>
@@ -152,73 +158,86 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="B3:C4" totalsRowShown="0">
-  <autoFilter ref="B3:C4" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="A16:B17" totalsRowShown="0">
+  <autoFilter ref="A16:B17" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7110FBC9-9E40-49FC-871A-F08C5D9FE788}" name="~NeedReminder"/>
-    <tableColumn id="2" xr3:uid="{F8B689E5-AC8A-4F44-ABEA-B8AF4AC8D64A}" name="NeedReminder"/>
+    <tableColumn id="1" xr3:uid="{7110FBC9-9E40-49FC-871A-F08C5D9FE788}" name="NeedReminder = False"/>
+    <tableColumn id="2" xr3:uid="{F8B689E5-AC8A-4F44-ABEA-B8AF4AC8D64A}" name="NeedReminder = True"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}" name="Table2" displayName="Table2" ref="A8:D10" totalsRowShown="0">
-  <autoFilter ref="A8:D10" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}" name="Table2" displayName="Table2" ref="A6:D8" totalsRowShown="0">
+  <autoFilter ref="A6:D8" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E2735160-26F2-4819-BFBD-32D7C7696789}" name="EventImportance"/>
-    <tableColumn id="2" xr3:uid="{6E950025-6DAD-46B4-B771-6446C53EFA41}" name="Pr(NotImportant|NeedReminder)"/>
-    <tableColumn id="3" xr3:uid="{1F26AE33-D341-4694-BED9-6F08818EBB7F}" name="Pr(Important|NeedReminder)"/>
-    <tableColumn id="4" xr3:uid="{6DBC89E0-6F6E-48D9-A03D-76C19E8C125F}" name="Pr(VeryImportant|NeedReminder)"/>
+    <tableColumn id="2" xr3:uid="{6E950025-6DAD-46B4-B771-6446C53EFA41}" name="Pr(NotImportant|Urgent)"/>
+    <tableColumn id="3" xr3:uid="{1F26AE33-D341-4694-BED9-6F08818EBB7F}" name="Pr(Important|Urgent)"/>
+    <tableColumn id="4" xr3:uid="{6DBC89E0-6F6E-48D9-A03D-76C19E8C125F}" name="Pr(VeryImportant|Urgent)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}" name="Table3" displayName="Table3" ref="A13:D15" totalsRowShown="0">
-  <autoFilter ref="A13:D15" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}" name="Table3" displayName="Table3" ref="A11:D13" totalsRowShown="0">
+  <autoFilter ref="A11:D13" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3F5A46F7-FD35-4570-A81C-B5C2AE707BCE}" name="TimeUnilEvent:"/>
-    <tableColumn id="2" xr3:uid="{A01F20E1-CD22-49F3-8F7B-B86075BF817B}" name="Pr(FarAway|NeedReminder)"/>
-    <tableColumn id="3" xr3:uid="{77EBDE7D-A11B-49CF-9717-F83E175904F0}" name="Pr(AverageDistance|NeedReminder)"/>
-    <tableColumn id="4" xr3:uid="{663FC72F-21F1-433E-BF41-3C0DAC2F4B1F}" name="Pr(VeryClose|NeedReminder)"/>
+    <tableColumn id="2" xr3:uid="{A01F20E1-CD22-49F3-8F7B-B86075BF817B}" name="Pr(FarAway|Urgent)"/>
+    <tableColumn id="3" xr3:uid="{77EBDE7D-A11B-49CF-9717-F83E175904F0}" name="Pr(MediumDistance|Urgent)"/>
+    <tableColumn id="4" xr3:uid="{663FC72F-21F1-433E-BF41-3C0DAC2F4B1F}" name="Pr(VeryClose|Urgent)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1CB3541E-31C6-459B-955B-9A6CD5410E9B}" name="Table4" displayName="Table4" ref="A18:C20" totalsRowShown="0">
-  <autoFilter ref="A18:C20" xr:uid="{1CB3541E-31C6-459B-955B-9A6CD5410E9B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BDE25C98-DC23-4929-BDC7-B8E1E6A2C29F}" name="ReadNotifcation:"/>
-    <tableColumn id="2" xr3:uid="{1FA0DA08-1621-4222-83DA-528D2BFD9C63}" name="Pr(~ReadNotification|NeedReminder)"/>
-    <tableColumn id="3" xr3:uid="{CB65E899-C78F-49E1-A619-10D379D2D8F4}" name="Pr(ReadNotification|NeedReminder)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{746063F1-21A7-4AE8-BB2D-F55C0C71F2EE}" name="Table5" displayName="Table5" ref="A23:C25" totalsRowShown="0">
-  <autoFilter ref="A23:C25" xr:uid="{746063F1-21A7-4AE8-BB2D-F55C0C71F2EE}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5958F1B1-67DE-4462-9B57-299642EAD041}" name="Busyness:"/>
-    <tableColumn id="2" xr3:uid="{11D99B2E-2AE0-4542-90CA-8CA5C46D4E55}" name="Pr(~Busy|ReadNotification)"/>
-    <tableColumn id="3" xr3:uid="{BDC2DFCC-08EB-4E7D-834D-5729A39FC834}" name="Pr(Busy|ReadNotification)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}" name="Table6" displayName="Table6" ref="A28:C30" totalsRowShown="0">
-  <autoFilter ref="A28:C30" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}" name="Table6" displayName="Table6" ref="A25:C27" totalsRowShown="0">
+  <autoFilter ref="A25:C27" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{972A3304-3633-4EC8-94C1-43B9B2DCB076}" name="Preferences:"/>
     <tableColumn id="2" xr3:uid="{C4B907E5-3F49-40E5-8D85-D8CAA37853D7}" name="Pr(~WantReminder|NeedReminder)"/>
     <tableColumn id="3" xr3:uid="{E25367A7-ABBE-4343-A14A-765885403837}" name="Pr(WantReminder|NeedReminder)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{96FC7849-0FF9-4907-B04B-4C1044FF8F91}" name="Table18" displayName="Table18" ref="A2:B3" totalsRowShown="0">
+  <autoFilter ref="A2:B3" xr:uid="{96FC7849-0FF9-4907-B04B-4C1044FF8F91}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DAB7B470-85CC-4198-AF47-D173B9E44F20}" name="Urgent = False"/>
+    <tableColumn id="2" xr3:uid="{10B20AD5-EBC5-462F-A73D-C5BD5A28B7B9}" name="Urgent = True"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}" name="Table69" displayName="Table69" ref="A20:D22" totalsRowShown="0">
+  <autoFilter ref="A20:D22" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2ACB6FC3-D65B-4A5C-B180-9330927FFBF5}" name="Busyness:"/>
+    <tableColumn id="2" xr3:uid="{8D9E8C97-7B87-49B1-9718-B12757BCEE3B}" name="Pr(NotBusy|NeedReminder)"/>
+    <tableColumn id="3" xr3:uid="{59CE3255-7BB9-4EAE-9026-FD3A2C94D5CD}" name="Pr(Busy|NeedReminder)"/>
+    <tableColumn id="4" xr3:uid="{CE6DD52E-58BC-4259-8C88-59F4FC257789}" name="Pr(VeryBusy|NeedReminder)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}" name="Table610" displayName="Table610" ref="A30:D32" totalsRowShown="0">
+  <autoFilter ref="A30:D32" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{88FC3D16-8DEA-416C-83A8-91C4B4BD8A49}" name="CheckedCalendarRecently:"/>
+    <tableColumn id="2" xr3:uid="{99D7C84C-7F46-416E-82B2-FC32603E2610}" name="Pr(WithinMonth|NeedReminder)"/>
+    <tableColumn id="3" xr3:uid="{CA620936-AC3E-4FBD-82F9-2BD38DE790BF}" name="Pr(WithinWeek|NeedReminder)"/>
+    <tableColumn id="4" xr3:uid="{DC03569F-C56E-471E-9971-BC0DB78E91D2}" name="Pr(WithinDay|NeedReminder)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -521,230 +540,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
-  <dimension ref="A3:D30"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="C4">
+      <c r="B3">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.45</v>
+      </c>
+      <c r="C7">
+        <v>0.35</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>0.7</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>0.2</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="D10">
-        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
+        <v>0.4</v>
+      </c>
+      <c r="D13">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.5</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.75</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0.15</v>
+      </c>
+      <c r="C22">
+        <v>0.8</v>
+      </c>
+      <c r="D22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0.8</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>0.2</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B31">
+        <v>0.1</v>
+      </c>
+      <c r="C31">
+        <v>0.2</v>
+      </c>
+      <c r="D31">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>0.7</v>
-      </c>
-      <c r="C14">
+      <c r="B32">
+        <v>0.4</v>
+      </c>
+      <c r="C32">
+        <v>0.4</v>
+      </c>
+      <c r="D32">
         <v>0.2</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>0.1</v>
-      </c>
-      <c r="C15">
-        <v>0.2</v>
-      </c>
-      <c r="D15">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>0.95</v>
-      </c>
-      <c r="C19">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>0.2</v>
-      </c>
-      <c r="C20">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>0.1</v>
-      </c>
-      <c r="C24">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0.8</v>
-      </c>
-      <c r="C25">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>0.8</v>
-      </c>
-      <c r="C29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>0.2</v>
-      </c>
-      <c r="C30">
-        <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Desktop\COSC 329\Project\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E587C82-CFFC-4DE3-90E6-F792BEC9DABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF8A807-B3DC-408E-8EF5-BF3CD835F89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>EventImportance</t>
   </si>
@@ -103,13 +103,37 @@
   </si>
   <si>
     <t>Pr(WithinDay|NeedReminder)</t>
+  </si>
+  <si>
+    <t>Urgent (t=0) = True</t>
+  </si>
+  <si>
+    <t>Urgent (t=0) = False</t>
+  </si>
+  <si>
+    <t>Urgent (t)</t>
+  </si>
+  <si>
+    <t>NeedReminder (t)</t>
+  </si>
+  <si>
+    <t>Pr(~NeedReminder|NeedReminder (t-1) )</t>
+  </si>
+  <si>
+    <t>Pr(NeedReminder|NeedReminder (t-1) )</t>
+  </si>
+  <si>
+    <t>Pr(~Urgent|Urgent (t-1) )</t>
+  </si>
+  <si>
+    <t>Pr(Urgent|Urgent (t-1) )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +141,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -134,12 +190,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,8 +296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="A16:B17" totalsRowShown="0">
-  <autoFilter ref="A16:B17" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="A21:B22" totalsRowShown="0">
+  <autoFilter ref="A21:B22" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7110FBC9-9E40-49FC-871A-F08C5D9FE788}" name="NeedReminder = False"/>
     <tableColumn id="2" xr3:uid="{F8B689E5-AC8A-4F44-ABEA-B8AF4AC8D64A}" name="NeedReminder = True"/>
@@ -169,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}" name="Table2" displayName="Table2" ref="A6:D8" totalsRowShown="0">
-  <autoFilter ref="A6:D8" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}" name="Table2" displayName="Table2" ref="A11:D13" totalsRowShown="0">
+  <autoFilter ref="A11:D13" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E2735160-26F2-4819-BFBD-32D7C7696789}" name="EventImportance"/>
     <tableColumn id="2" xr3:uid="{6E950025-6DAD-46B4-B771-6446C53EFA41}" name="Pr(NotImportant|Urgent)"/>
@@ -182,8 +320,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}" name="Table3" displayName="Table3" ref="A11:D13" totalsRowShown="0">
-  <autoFilter ref="A11:D13" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}" name="Table3" displayName="Table3" ref="A16:D18" totalsRowShown="0">
+  <autoFilter ref="A16:D18" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3F5A46F7-FD35-4570-A81C-B5C2AE707BCE}" name="TimeUnilEvent:"/>
     <tableColumn id="2" xr3:uid="{A01F20E1-CD22-49F3-8F7B-B86075BF817B}" name="Pr(FarAway|Urgent)"/>
@@ -195,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}" name="Table6" displayName="Table6" ref="A25:C27" totalsRowShown="0">
-  <autoFilter ref="A25:C27" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}" name="Table6" displayName="Table6" ref="A35:C37" totalsRowShown="0">
+  <autoFilter ref="A35:C37" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{972A3304-3633-4EC8-94C1-43B9B2DCB076}" name="Preferences:"/>
     <tableColumn id="2" xr3:uid="{C4B907E5-3F49-40E5-8D85-D8CAA37853D7}" name="Pr(~WantReminder|NeedReminder)"/>
@@ -210,16 +348,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{96FC7849-0FF9-4907-B04B-4C1044FF8F91}" name="Table18" displayName="Table18" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3" xr:uid="{96FC7849-0FF9-4907-B04B-4C1044FF8F91}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DAB7B470-85CC-4198-AF47-D173B9E44F20}" name="Urgent = False"/>
-    <tableColumn id="2" xr3:uid="{10B20AD5-EBC5-462F-A73D-C5BD5A28B7B9}" name="Urgent = True"/>
+    <tableColumn id="1" xr3:uid="{DAB7B470-85CC-4198-AF47-D173B9E44F20}" name="Urgent (t=0) = False"/>
+    <tableColumn id="2" xr3:uid="{10B20AD5-EBC5-462F-A73D-C5BD5A28B7B9}" name="Urgent (t=0) = True"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}" name="Table69" displayName="Table69" ref="A20:D22" totalsRowShown="0">
-  <autoFilter ref="A20:D22" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}" name="Table69" displayName="Table69" ref="A30:D32" totalsRowShown="0">
+  <autoFilter ref="A30:D32" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2ACB6FC3-D65B-4A5C-B180-9330927FFBF5}" name="Busyness:"/>
     <tableColumn id="2" xr3:uid="{8D9E8C97-7B87-49B1-9718-B12757BCEE3B}" name="Pr(NotBusy|NeedReminder)"/>
@@ -231,8 +369,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}" name="Table610" displayName="Table610" ref="A30:D32" totalsRowShown="0">
-  <autoFilter ref="A30:D32" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}" name="Table610" displayName="Table610" ref="A40:D42" totalsRowShown="0">
+  <autoFilter ref="A40:D42" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{88FC3D16-8DEA-416C-83A8-91C4B4BD8A49}" name="CheckedCalendarRecently:"/>
     <tableColumn id="2" xr3:uid="{99D7C84C-7F46-416E-82B2-FC32603E2610}" name="Pr(WithinMonth|NeedReminder)"/>
@@ -540,16 +678,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
-  <dimension ref="A2:D32"/>
+  <dimension ref="A2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
@@ -559,10 +697,10 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -573,60 +711,51 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.45</v>
       </c>
-      <c r="C7">
-        <v>0.35</v>
-      </c>
-      <c r="D7">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.2</v>
-      </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
+      <c r="B8" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,13 +763,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="C12">
+        <v>0.35</v>
+      </c>
+      <c r="D12">
         <v>0.2</v>
-      </c>
-      <c r="D12">
-        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,118 +777,118 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.5</v>
+      <c r="A17" t="s">
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
+        <v>0.7</v>
+      </c>
+      <c r="C17">
+        <v>0.2</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>0.05</v>
+      </c>
+      <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
-        <v>0.75</v>
-      </c>
-      <c r="C21">
-        <v>0.2</v>
-      </c>
-      <c r="D21">
-        <v>0.05</v>
+      <c r="B21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>0.5</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B22">
-        <v>0.15</v>
-      </c>
-      <c r="C22">
-        <v>0.8</v>
-      </c>
-      <c r="D22">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>0.8</v>
-      </c>
-      <c r="C26">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>0.2</v>
-      </c>
-      <c r="C27">
-        <v>0.8</v>
+      <c r="B27" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,13 +896,13 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="C31">
         <v>0.2</v>
       </c>
       <c r="D31">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,16 +910,92 @@
         <v>6</v>
       </c>
       <c r="B32">
+        <v>0.15</v>
+      </c>
+      <c r="C32">
+        <v>0.8</v>
+      </c>
+      <c r="D32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>0.8</v>
+      </c>
+      <c r="C36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>0.2</v>
+      </c>
+      <c r="C37">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>0.1</v>
+      </c>
+      <c r="C41">
+        <v>0.2</v>
+      </c>
+      <c r="D41">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
         <v>0.4</v>
       </c>
-      <c r="C32">
+      <c r="C42">
         <v>0.4</v>
       </c>
-      <c r="D32">
+      <c r="D42">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="7">
     <tablePart r:id="rId1"/>

--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Desktop\COSC 329\Project\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF8A807-B3DC-408E-8EF5-BF3CD835F89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F62A6-17D4-43E5-8DC1-50EEAE8DD764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
+    <workbookView xWindow="-28020" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
   <dimension ref="A2:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,10 +935,10 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C36">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,10 +946,10 @@
         <v>6</v>
       </c>
       <c r="B37">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C37">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">

--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Desktop\COSC 329\Project\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F62A6-17D4-43E5-8DC1-50EEAE8DD764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2B0983-83AB-4894-BF2D-65FAECC8F703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
+    <workbookView xWindow="-24735" yWindow="1815" windowWidth="21600" windowHeight="10635" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
   <dimension ref="A2:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,14 +997,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Desktop\COSC 329\Project\329-Learning-Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2B0983-83AB-4894-BF2D-65FAECC8F703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDDD2FC-7550-46D8-9F4B-86A524157DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24735" yWindow="1815" windowWidth="21600" windowHeight="10635" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
+    <workbookView xWindow="-16320" yWindow="-8235" windowWidth="16440" windowHeight="28440" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
   <dimension ref="A2:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,10 +913,10 @@
         <v>0.15</v>
       </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="D32">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">

--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Desktop\COSC 329\Project\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDDD2FC-7550-46D8-9F4B-86A524157DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EC84AD-EE04-4218-9D57-8112C6D005EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8235" windowWidth="16440" windowHeight="28440" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>EventImportance</t>
   </si>
@@ -127,6 +127,39 @@
   </si>
   <si>
     <t>Pr(Urgent|Urgent (t-1) )</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>Busyness</t>
+  </si>
+  <si>
+    <t>CheckedCalendarFrequency</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Busy</t>
+  </si>
+  <si>
+    <t>WithinMonth</t>
+  </si>
+  <si>
+    <t>WithinWeek</t>
+  </si>
+  <si>
+    <t>WithinDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not </t>
+  </si>
+  <si>
+    <t>noT</t>
+  </si>
+  <si>
+    <t>Very</t>
   </si>
 </sst>
 </file>
@@ -156,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +214,20 @@
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -266,11 +311,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -278,6 +336,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,8 +356,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="A21:B22" totalsRowShown="0">
-  <autoFilter ref="A21:B22" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="D21:E22" totalsRowShown="0">
+  <autoFilter ref="D21:E22" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7110FBC9-9E40-49FC-871A-F08C5D9FE788}" name="NeedReminder = False"/>
     <tableColumn id="2" xr3:uid="{F8B689E5-AC8A-4F44-ABEA-B8AF4AC8D64A}" name="NeedReminder = True"/>
@@ -333,8 +393,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}" name="Table6" displayName="Table6" ref="A35:C37" totalsRowShown="0">
-  <autoFilter ref="A35:C37" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}" name="Table6" displayName="Table6" ref="A70:C72" totalsRowShown="0">
+  <autoFilter ref="A70:C72" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{972A3304-3633-4EC8-94C1-43B9B2DCB076}" name="Preferences:"/>
     <tableColumn id="2" xr3:uid="{C4B907E5-3F49-40E5-8D85-D8CAA37853D7}" name="Pr(~WantReminder|NeedReminder)"/>
@@ -356,8 +416,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}" name="Table69" displayName="Table69" ref="A30:D32" totalsRowShown="0">
-  <autoFilter ref="A30:D32" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}" name="Table69" displayName="Table69" ref="A65:D67" totalsRowShown="0">
+  <autoFilter ref="A65:D67" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2ACB6FC3-D65B-4A5C-B180-9330927FFBF5}" name="Busyness:"/>
     <tableColumn id="2" xr3:uid="{8D9E8C97-7B87-49B1-9718-B12757BCEE3B}" name="Pr(NotBusy|NeedReminder)"/>
@@ -369,8 +429,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}" name="Table610" displayName="Table610" ref="A40:D42" totalsRowShown="0">
-  <autoFilter ref="A40:D42" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}" name="Table610" displayName="Table610" ref="A75:D77" totalsRowShown="0">
+  <autoFilter ref="A75:D77" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{88FC3D16-8DEA-416C-83A8-91C4B4BD8A49}" name="CheckedCalendarRecently:"/>
     <tableColumn id="2" xr3:uid="{99D7C84C-7F46-416E-82B2-FC32603E2610}" name="Pr(WithinMonth|NeedReminder)"/>
@@ -378,6 +438,17 @@
     <tableColumn id="4" xr3:uid="{DC03569F-C56E-471E-9971-BC0DB78E91D2}" name="Pr(WithinDay|NeedReminder)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BB536D8A-FC7A-4256-8B80-39CE50AA9B9C}" name="Table15" displayName="Table15" ref="B21:C30" totalsRowShown="0">
+  <autoFilter ref="B21:C30" xr:uid="{BB536D8A-FC7A-4256-8B80-39CE50AA9B9C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{366E0F95-13BA-436C-9A52-CDFC7E3E6053}" name="Busyness"/>
+    <tableColumn id="2" xr3:uid="{A4AB0B0D-C9D3-439C-9202-89885F20C2FD}" name="CheckedCalendarFrequency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -678,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
-  <dimension ref="A2:D42"/>
+  <dimension ref="A2:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +761,7 @@
     <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -800,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -814,7 +885,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -828,169 +899,368 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>0.75</v>
+      </c>
+      <c r="C66">
+        <v>0.2</v>
+      </c>
+      <c r="D66">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>0.15</v>
+      </c>
+      <c r="C67">
+        <v>0.35</v>
+      </c>
+      <c r="D67">
         <v>0.5</v>
       </c>
-      <c r="B22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B71">
+        <v>0.7</v>
+      </c>
+      <c r="C71">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>0.4</v>
+      </c>
+      <c r="C72">
         <v>0.6</v>
       </c>
-      <c r="C26" s="4">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>0.1</v>
+      </c>
+      <c r="C76">
+        <v>0.2</v>
+      </c>
+      <c r="D76">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>0.75</v>
-      </c>
-      <c r="C31">
-        <v>0.2</v>
-      </c>
-      <c r="D31">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>0.15</v>
-      </c>
-      <c r="C32">
-        <v>0.35</v>
-      </c>
-      <c r="D32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36">
-        <v>0.7</v>
-      </c>
-      <c r="C36">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37">
+      <c r="C77">
         <v>0.4</v>
       </c>
-      <c r="C37">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41">
-        <v>0.1</v>
-      </c>
-      <c r="C41">
-        <v>0.2</v>
-      </c>
-      <c r="D41">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <v>0.4</v>
-      </c>
-      <c r="C42">
-        <v>0.4</v>
-      </c>
-      <c r="D42">
+      <c r="D77">
         <v>0.2</v>
       </c>
     </row>
@@ -998,7 +1268,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="7">
+  <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1006,6 +1276,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Desktop\COSC 329\Project\329-Learning-Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EC84AD-EE04-4218-9D57-8112C6D005EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857F9296-7E8C-46D4-A496-28512B6E75A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
+    <workbookView xWindow="-16320" yWindow="-8235" windowWidth="16440" windowHeight="28440" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,41 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>EventImportance</t>
   </si>
   <si>
-    <t>Pr(~WantReminder|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(WantReminder|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Preferences:</t>
-  </si>
-  <si>
     <t>TimeUnilEvent:</t>
   </si>
   <si>
-    <t>NeedReminder = False</t>
-  </si>
-  <si>
-    <t>NeedReminder = True</t>
-  </si>
-  <si>
-    <t>Busyness:</t>
-  </si>
-  <si>
-    <t>Pr(Busy|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(NotBusy|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(VeryBusy|NeedReminder)</t>
-  </si>
-  <si>
     <t>Urgent = False</t>
   </si>
   <si>
@@ -93,18 +66,6 @@
     <t>Pr(VeryClose|Urgent)</t>
   </si>
   <si>
-    <t>CheckedCalendarRecently:</t>
-  </si>
-  <si>
-    <t>Pr(WithinMonth|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(WithinWeek|NeedReminder)</t>
-  </si>
-  <si>
-    <t>Pr(WithinDay|NeedReminder)</t>
-  </si>
-  <si>
     <t>Urgent (t=0) = True</t>
   </si>
   <si>
@@ -114,15 +75,6 @@
     <t>Urgent (t)</t>
   </si>
   <si>
-    <t>NeedReminder (t)</t>
-  </si>
-  <si>
-    <t>Pr(~NeedReminder|NeedReminder (t-1) )</t>
-  </si>
-  <si>
-    <t>Pr(NeedReminder|NeedReminder (t-1) )</t>
-  </si>
-  <si>
     <t>Pr(~Urgent|Urgent (t-1) )</t>
   </si>
   <si>
@@ -153,20 +105,41 @@
     <t>WithinDay</t>
   </si>
   <si>
-    <t xml:space="preserve">not </t>
-  </si>
-  <si>
-    <t>noT</t>
-  </si>
-  <si>
     <t>Very</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not </t>
+  </si>
+  <si>
+    <t>pr(~NR | URG BUSY CCF)</t>
+  </si>
+  <si>
+    <t>pr(NR | URG BUSY CCF)</t>
+  </si>
+  <si>
+    <t>Pr(NotBusy)</t>
+  </si>
+  <si>
+    <t>Pr(Busy)</t>
+  </si>
+  <si>
+    <t>Pr(VeryBusy)</t>
+  </si>
+  <si>
+    <t>Pr(WithinDay)</t>
+  </si>
+  <si>
+    <t>Pr(WithinWeek)</t>
+  </si>
+  <si>
+    <t>Pr(WithinMonth)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +161,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,18 +224,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -311,24 +333,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -336,10 +350,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,13 +378,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="D21:E22" totalsRowShown="0">
-  <autoFilter ref="D21:E22" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="D21:E36" totalsRowShown="0" headerRowCellStyle="Accent6">
+  <autoFilter ref="D21:E36" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7110FBC9-9E40-49FC-871A-F08C5D9FE788}" name="NeedReminder = False"/>
-    <tableColumn id="2" xr3:uid="{F8B689E5-AC8A-4F44-ABEA-B8AF4AC8D64A}" name="NeedReminder = True"/>
+    <tableColumn id="1" xr3:uid="{7110FBC9-9E40-49FC-871A-F08C5D9FE788}" name="pr(~NR | URG BUSY CCF)"/>
+    <tableColumn id="2" xr3:uid="{F8B689E5-AC8A-4F44-ABEA-B8AF4AC8D64A}" name="pr(NR | URG BUSY CCF)"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -393,18 +415,6 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}" name="Table6" displayName="Table6" ref="A70:C72" totalsRowShown="0">
-  <autoFilter ref="A70:C72" xr:uid="{A3A416B5-9151-4FD9-8677-22365280045F}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{972A3304-3633-4EC8-94C1-43B9B2DCB076}" name="Preferences:"/>
-    <tableColumn id="2" xr3:uid="{C4B907E5-3F49-40E5-8D85-D8CAA37853D7}" name="Pr(~WantReminder|NeedReminder)"/>
-    <tableColumn id="3" xr3:uid="{E25367A7-ABBE-4343-A14A-765885403837}" name="Pr(WantReminder|NeedReminder)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{96FC7849-0FF9-4907-B04B-4C1044FF8F91}" name="Table18" displayName="Table18" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3" xr:uid="{96FC7849-0FF9-4907-B04B-4C1044FF8F91}"/>
   <tableColumns count="2">
@@ -415,40 +425,38 @@
 </table>
 </file>
 
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}" name="Table69" displayName="Table69" ref="A42:C43" totalsRowShown="0">
+  <autoFilter ref="A42:C43" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{8D9E8C97-7B87-49B1-9718-B12757BCEE3B}" name="Pr(NotBusy)"/>
+    <tableColumn id="3" xr3:uid="{59CE3255-7BB9-4EAE-9026-FD3A2C94D5CD}" name="Pr(Busy)"/>
+    <tableColumn id="4" xr3:uid="{CE6DD52E-58BC-4259-8C88-59F4FC257789}" name="Pr(VeryBusy)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}" name="Table69" displayName="Table69" ref="A65:D67" totalsRowShown="0">
-  <autoFilter ref="A65:D67" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2ACB6FC3-D65B-4A5C-B180-9330927FFBF5}" name="Busyness:"/>
-    <tableColumn id="2" xr3:uid="{8D9E8C97-7B87-49B1-9718-B12757BCEE3B}" name="Pr(NotBusy|NeedReminder)"/>
-    <tableColumn id="3" xr3:uid="{59CE3255-7BB9-4EAE-9026-FD3A2C94D5CD}" name="Pr(Busy|NeedReminder)"/>
-    <tableColumn id="4" xr3:uid="{CE6DD52E-58BC-4259-8C88-59F4FC257789}" name="Pr(VeryBusy|NeedReminder)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}" name="Table610" displayName="Table610" ref="A46:C47" totalsRowShown="0">
+  <autoFilter ref="A46:C47" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{99D7C84C-7F46-416E-82B2-FC32603E2610}" name="Pr(WithinDay)"/>
+    <tableColumn id="3" xr3:uid="{CA620936-AC3E-4FBD-82F9-2BD38DE790BF}" name="Pr(WithinWeek)"/>
+    <tableColumn id="4" xr3:uid="{DC03569F-C56E-471E-9971-BC0DB78E91D2}" name="Pr(WithinMonth)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}" name="Table610" displayName="Table610" ref="A75:D77" totalsRowShown="0">
-  <autoFilter ref="A75:D77" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{88FC3D16-8DEA-416C-83A8-91C4B4BD8A49}" name="CheckedCalendarRecently:"/>
-    <tableColumn id="2" xr3:uid="{99D7C84C-7F46-416E-82B2-FC32603E2610}" name="Pr(WithinMonth|NeedReminder)"/>
-    <tableColumn id="3" xr3:uid="{CA620936-AC3E-4FBD-82F9-2BD38DE790BF}" name="Pr(WithinWeek|NeedReminder)"/>
-    <tableColumn id="4" xr3:uid="{DC03569F-C56E-471E-9971-BC0DB78E91D2}" name="Pr(WithinDay|NeedReminder)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BB536D8A-FC7A-4256-8B80-39CE50AA9B9C}" name="Table15" displayName="Table15" ref="B21:C30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BB536D8A-FC7A-4256-8B80-39CE50AA9B9C}" name="Table15" displayName="Table15" ref="B21:C30" totalsRowShown="0" headerRowCellStyle="Accent6">
   <autoFilter ref="B21:C30" xr:uid="{BB536D8A-FC7A-4256-8B80-39CE50AA9B9C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{366E0F95-13BA-436C-9A52-CDFC7E3E6053}" name="Busyness"/>
     <tableColumn id="2" xr3:uid="{A4AB0B0D-C9D3-439C-9202-89885F20C2FD}" name="CheckedCalendarFrequency"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -749,29 +757,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
-  <dimension ref="A2:E77"/>
+  <dimension ref="A2:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,18 +792,18 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4">
         <v>0.55000000000000004</v>
@@ -806,7 +814,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6">
         <v>0.15</v>
@@ -820,18 +828,18 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0.45</v>
@@ -845,7 +853,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -859,21 +867,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>0.7</v>
@@ -887,7 +895,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>0.05</v>
@@ -900,375 +908,377 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
+      <c r="A21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>0.9</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>0.6</v>
+      </c>
+      <c r="E26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>0.3</v>
+      </c>
+      <c r="E27">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="b">
+      <c r="B31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>0.85</v>
+      </c>
+      <c r="E31">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="b">
+      <c r="B32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>0.35</v>
+      </c>
+      <c r="E32">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="b">
+      <c r="B33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>0.2</v>
+      </c>
+      <c r="E33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="b">
+      <c r="B34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="b">
+      <c r="B35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="b">
+      <c r="B36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="b">
+      <c r="B37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="b">
+      <c r="B38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
+      <c r="E38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="B39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>0.05</v>
+      </c>
+      <c r="E39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="B42" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="4">
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.2</v>
+      </c>
+      <c r="B43">
         <v>0.6</v>
       </c>
-      <c r="C61" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="6">
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.6</v>
+      </c>
+      <c r="B47">
+        <v>0.3</v>
+      </c>
+      <c r="C47">
         <v>0.1</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66">
-        <v>0.75</v>
-      </c>
-      <c r="C66">
-        <v>0.2</v>
-      </c>
-      <c r="D66">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67">
-        <v>0.15</v>
-      </c>
-      <c r="C67">
-        <v>0.35</v>
-      </c>
-      <c r="D67">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71">
-        <v>0.7</v>
-      </c>
-      <c r="C71">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72">
-        <v>0.4</v>
-      </c>
-      <c r="C72">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76">
-        <v>0.1</v>
-      </c>
-      <c r="C76">
-        <v>0.2</v>
-      </c>
-      <c r="D76">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77">
-        <v>0.4</v>
-      </c>
-      <c r="C77">
-        <v>0.4</v>
-      </c>
-      <c r="D77">
-        <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1276,7 +1286,6 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857F9296-7E8C-46D4-A496-28512B6E75A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862F4168-8F85-4ACB-A123-5BB42EC0FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8235" windowWidth="16440" windowHeight="28440" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>EventImportance</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Pr(WithinMonth)</t>
+  </si>
+  <si>
+    <t>NeedReminder_t-1</t>
+  </si>
+  <si>
+    <t>pr(NeedReminder_t | NeedReminder_t-1)</t>
+  </si>
+  <si>
+    <t>pr(~NeedReminder_t | NeedReminder_t-1)</t>
   </si>
 </sst>
 </file>
@@ -757,17 +766,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -1272,6 +1280,39 @@
       </c>
       <c r="C47">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0.65</v>
+      </c>
+      <c r="C51">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>0.1</v>
+      </c>
+      <c r="C52">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862F4168-8F85-4ACB-A123-5BB42EC0FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D14270-29D6-45A3-909F-D7C597147CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
+    <workbookView xWindow="-16320" yWindow="-8235" windowWidth="16440" windowHeight="28440" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,6 +466,18 @@
     <tableColumn id="2" xr3:uid="{A4AB0B0D-C9D3-439C-9202-89885F20C2FD}" name="CheckedCalendarFrequency"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{53AFEDFA-76F0-4CDC-9DE9-D935E964C008}" name="Table10" displayName="Table10" ref="A50:C52" totalsRowShown="0">
+  <autoFilter ref="A50:C52" xr:uid="{53AFEDFA-76F0-4CDC-9DE9-D935E964C008}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5CCCBB4C-475B-4F64-AF89-C222EEB63960}" name="NeedReminder_t-1"/>
+    <tableColumn id="2" xr3:uid="{8CD147F6-7BD2-4148-83E5-F74812F64FFB}" name="pr(~NeedReminder_t | NeedReminder_t-1)"/>
+    <tableColumn id="3" xr3:uid="{C4F6BE8C-4939-4EC4-B337-1F3A57F2C2F3}" name="pr(NeedReminder_t | NeedReminder_t-1)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -768,14 +780,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
   <dimension ref="A2:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -1164,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E35" s="11">
         <v>0.7</v>
@@ -1319,7 +1332,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="7">
+  <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1327,6 +1340,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D14270-29D6-45A3-909F-D7C597147CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084477B-47FE-4F01-98B1-495D28F0F82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8235" windowWidth="16440" windowHeight="28440" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>EventImportance</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Pr(VeryImportant|Urgent)</t>
   </si>
   <si>
-    <t>Pr(FarAway|Urgent)</t>
-  </si>
-  <si>
     <t>Pr(MediumDistance|Urgent)</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>pr(~NeedReminder_t | NeedReminder_t-1)</t>
+  </si>
+  <si>
+    <t>Pr(FarAway|Urgent)2</t>
   </si>
 </sst>
 </file>
@@ -397,6 +397,17 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{ABBE58D3-A2C2-4189-9E35-0E4D3008CA68}" name="Table1513" displayName="Table1513" ref="C54:D63" totalsRowShown="0" headerRowCellStyle="Accent6">
+  <autoFilter ref="C54:D63" xr:uid="{ABBE58D3-A2C2-4189-9E35-0E4D3008CA68}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{661F071F-0927-4A71-B671-359D11626439}" name="Busyness"/>
+    <tableColumn id="2" xr3:uid="{469B943D-C5D1-4C8B-A53D-8644F8FB2382}" name="CheckedCalendarFrequency"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}" name="Table2" displayName="Table2" ref="A11:D13" totalsRowShown="0">
   <autoFilter ref="A11:D13" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}"/>
@@ -415,9 +426,9 @@
   <autoFilter ref="A16:D18" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3F5A46F7-FD35-4570-A81C-B5C2AE707BCE}" name="TimeUnilEvent:"/>
-    <tableColumn id="2" xr3:uid="{A01F20E1-CD22-49F3-8F7B-B86075BF817B}" name="Pr(FarAway|Urgent)"/>
+    <tableColumn id="2" xr3:uid="{A01F20E1-CD22-49F3-8F7B-B86075BF817B}" name="Pr(VeryClose|Urgent)"/>
     <tableColumn id="3" xr3:uid="{77EBDE7D-A11B-49CF-9717-F83E175904F0}" name="Pr(MediumDistance|Urgent)"/>
-    <tableColumn id="4" xr3:uid="{663FC72F-21F1-433E-BF41-3C0DAC2F4B1F}" name="Pr(VeryClose|Urgent)"/>
+    <tableColumn id="4" xr3:uid="{663FC72F-21F1-433E-BF41-3C0DAC2F4B1F}" name="Pr(FarAway|Urgent)2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -478,6 +489,17 @@
     <tableColumn id="3" xr3:uid="{C4F6BE8C-4939-4EC4-B337-1F3A57F2C2F3}" name="pr(NeedReminder_t | NeedReminder_t-1)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{077D2117-07F2-49E1-B095-65940A3DA88B}" name="Table112" displayName="Table112" ref="E54:F69" totalsRowShown="0" headerRowCellStyle="Accent6">
+  <autoFilter ref="E54:F69" xr:uid="{077D2117-07F2-49E1-B095-65940A3DA88B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EC3DF0CE-FF83-42EF-AE6C-6E49A337634B}" name="pr(~NR | URG BUSY CCF)"/>
+    <tableColumn id="2" xr3:uid="{7D4D1FE0-D118-4ABA-A396-1C42F725F86F}" name="pr(NR | URG BUSY CCF)"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -778,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
-  <dimension ref="A2:E52"/>
+  <dimension ref="A2:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,10 +819,10 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +835,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -891,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,13 +927,13 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="C17">
         <v>0.2</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -919,30 +941,30 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>0.05</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C18">
         <v>0.4</v>
       </c>
       <c r="D18">
-        <v>0.55000000000000004</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="D21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -950,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="11">
         <v>0.95</v>
@@ -967,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="11">
         <v>0.9</v>
@@ -984,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="11">
         <v>0.85</v>
@@ -1001,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>0.9</v>
@@ -1018,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>0.6</v>
@@ -1035,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D27">
         <v>0.3</v>
@@ -1052,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="11">
         <v>0.7</v>
@@ -1069,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="11">
         <v>0.35</v>
@@ -1086,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="11">
         <v>0.25</v>
@@ -1103,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <v>0.85</v>
@@ -1120,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32">
         <v>0.35</v>
@@ -1137,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>0.2</v>
@@ -1154,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="11">
         <v>0.6</v>
@@ -1171,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="11">
         <v>0.3</v>
@@ -1188,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D36" s="11">
         <v>0.1</v>
@@ -1205,10 +1227,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37">
         <v>0.5</v>
@@ -1222,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38">
         <v>0.1</v>
@@ -1239,10 +1261,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>0.05</v>
@@ -1253,13 +1275,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
         <v>27</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,13 +1297,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>31</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,18 +1317,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
         <v>33</v>
       </c>
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="b">
         <v>0</v>
       </c>
@@ -1317,7 +1339,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="b">
         <v>1</v>
       </c>
@@ -1326,13 +1348,336 @@
       </c>
       <c r="C52">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58">
+        <v>0.9</v>
+      </c>
+      <c r="F58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>0.6</v>
+      </c>
+      <c r="F59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>0.3</v>
+      </c>
+      <c r="F60">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64">
+        <v>0.85</v>
+      </c>
+      <c r="F64">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>0.35</v>
+      </c>
+      <c r="F65">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>0.2</v>
+      </c>
+      <c r="F66">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F68" s="11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <v>0.5</v>
+      </c>
+      <c r="F70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>0.1</v>
+      </c>
+      <c r="F71">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>0.05</v>
+      </c>
+      <c r="F72">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="10">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1341,6 +1686,8 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084477B-47FE-4F01-98B1-495D28F0F82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49108847-B42C-4B0E-855B-895E78C24C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="39">
   <si>
     <t>EventImportance</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Pr(FarAway|Urgent)2</t>
+  </si>
+  <si>
+    <t>Urgency_t</t>
+  </si>
+  <si>
+    <t>pr(~NR_t | NR_t-1 URG BUSY CCF)</t>
+  </si>
+  <si>
+    <t>pr(NR_t | NR_t-1 URG BUSY CCF)</t>
   </si>
 </sst>
 </file>
@@ -206,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -343,15 +358,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -364,9 +380,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="6" builtinId="32"/>
     <cellStyle name="Accent6" xfId="5" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -800,20 +818,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
-  <dimension ref="A2:F72"/>
+  <dimension ref="A2:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1531,13 +1549,13 @@
         <v>21</v>
       </c>
       <c r="E64">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="F64">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="b">
         <v>1</v>
       </c>
@@ -1554,7 +1572,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="b">
         <v>1</v>
       </c>
@@ -1565,13 +1583,13 @@
         <v>19</v>
       </c>
       <c r="E66">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F66">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="b">
         <v>1</v>
       </c>
@@ -1582,13 +1600,13 @@
         <v>21</v>
       </c>
       <c r="E67" s="11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F67" s="11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="b">
         <v>1</v>
       </c>
@@ -1599,13 +1617,13 @@
         <v>20</v>
       </c>
       <c r="E68" s="11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F68" s="11">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="b">
         <v>1</v>
       </c>
@@ -1622,7 +1640,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="b">
         <v>1</v>
       </c>
@@ -1633,13 +1651,13 @@
         <v>21</v>
       </c>
       <c r="E70">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="F70">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="b">
         <v>1</v>
       </c>
@@ -1656,7 +1674,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="b">
         <v>1</v>
       </c>
@@ -1671,6 +1689,782 @@
       </c>
       <c r="F72">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76">
+        <v>0.98</v>
+      </c>
+      <c r="G76">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77">
+        <v>0.95</v>
+      </c>
+      <c r="G77">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78">
+        <v>0.93</v>
+      </c>
+      <c r="G78">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G80" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="G81" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82">
+        <v>0.85</v>
+      </c>
+      <c r="G82">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <v>0.8</v>
+      </c>
+      <c r="G83">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84">
+        <v>0.75</v>
+      </c>
+      <c r="G84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G85" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G86" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G87" s="12">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88">
+        <v>0.75</v>
+      </c>
+      <c r="G88">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89">
+        <v>0.4</v>
+      </c>
+      <c r="G89">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90">
+        <v>0.3</v>
+      </c>
+      <c r="G90">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G91" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G92" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G93" s="12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94">
+        <f xml:space="preserve"> G93</f>
+        <v>0.95</v>
+      </c>
+      <c r="G94">
+        <f>F93</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95">
+        <f xml:space="preserve"> G92</f>
+        <v>0.8</v>
+      </c>
+      <c r="G95">
+        <f xml:space="preserve"> F92</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96">
+        <f xml:space="preserve"> G91</f>
+        <v>0.6</v>
+      </c>
+      <c r="G96">
+        <f xml:space="preserve"> F91</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="12">
+        <f xml:space="preserve"> G90</f>
+        <v>0.7</v>
+      </c>
+      <c r="G97" s="12">
+        <f xml:space="preserve"> F90</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="12">
+        <f xml:space="preserve"> G89</f>
+        <v>0.6</v>
+      </c>
+      <c r="G98" s="12">
+        <f xml:space="preserve"> F89</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="12">
+        <f xml:space="preserve"> G88</f>
+        <v>0.25</v>
+      </c>
+      <c r="G99" s="12">
+        <f xml:space="preserve"> F88</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100">
+        <f xml:space="preserve"> G87</f>
+        <v>0.65</v>
+      </c>
+      <c r="G100">
+        <f>F87</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101">
+        <f xml:space="preserve"> G86</f>
+        <v>0.4</v>
+      </c>
+      <c r="G101">
+        <f>F86</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102">
+        <f xml:space="preserve"> G85</f>
+        <v>0.2</v>
+      </c>
+      <c r="G102">
+        <f xml:space="preserve"> F85</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="12">
+        <f xml:space="preserve"> G84</f>
+        <v>0.25</v>
+      </c>
+      <c r="G103" s="12">
+        <f xml:space="preserve"> F84</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="12">
+        <f xml:space="preserve"> G83</f>
+        <v>0.2</v>
+      </c>
+      <c r="G104" s="12">
+        <f>F83</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="12">
+        <f xml:space="preserve"> G82</f>
+        <v>0.15</v>
+      </c>
+      <c r="G105" s="12">
+        <f xml:space="preserve"> F82</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106">
+        <f xml:space="preserve"> G81</f>
+        <v>0.15</v>
+      </c>
+      <c r="G106">
+        <f>F81</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107">
+        <f xml:space="preserve"> G80</f>
+        <v>0.1</v>
+      </c>
+      <c r="G107">
+        <f xml:space="preserve"> F80</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108">
+        <f xml:space="preserve"> G79</f>
+        <v>0.05</v>
+      </c>
+      <c r="G108">
+        <f xml:space="preserve"> F79</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="12">
+        <f xml:space="preserve"> G78</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G109" s="12">
+        <f xml:space="preserve"> F78</f>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="12">
+        <f xml:space="preserve"> G77</f>
+        <v>0.05</v>
+      </c>
+      <c r="G110" s="12">
+        <f xml:space="preserve"> F77</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="12">
+        <f xml:space="preserve"> G76</f>
+        <v>0.02</v>
+      </c>
+      <c r="G111" s="12">
+        <f>F76</f>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>

--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Desktop\COSC 329\Project\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49108847-B42C-4B0E-855B-895E78C24C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DDE524-6568-4109-A75C-D822479CC837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
   <si>
     <t>EventImportance</t>
   </si>
@@ -151,13 +151,61 @@
   </si>
   <si>
     <t>pr(NR_t | NR_t-1 URG BUSY CCF)</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>User needs pop up notification</t>
+  </si>
+  <si>
+    <t>User does not need notification</t>
+  </si>
+  <si>
+    <t>User needs email notification</t>
+  </si>
+  <si>
+    <t>Do not notify</t>
+  </si>
+  <si>
+    <t>Send email notification</t>
+  </si>
+  <si>
+    <t>Send pop-up notification</t>
+  </si>
+  <si>
+    <t>User is not annoyed by any notifications</t>
+  </si>
+  <si>
+    <t>User potentially misses event</t>
+  </si>
+  <si>
+    <t>User potentially misses an event</t>
+  </si>
+  <si>
+    <t>User is mildly annoyed</t>
+  </si>
+  <si>
+    <t>User is very annoyed</t>
+  </si>
+  <si>
+    <t>User is adequetly reminded of their event</t>
+  </si>
+  <si>
+    <t>User was reminded, but potentially misses event</t>
+  </si>
+  <si>
+    <t>User is mildly annoyed, but reminded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +258,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -367,7 +423,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -381,6 +437,10 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -818,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
-  <dimension ref="A2:G111"/>
+  <dimension ref="A2:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,8 +889,7 @@
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="39" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2465,6 +2524,67 @@
       <c r="G111" s="12">
         <f>F76</f>
         <v>0.98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C119" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" t="s">
+        <v>52</v>
+      </c>
+      <c r="E121" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122" t="s">
+        <v>54</v>
+      </c>
+      <c r="E122" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/CPTs.xlsx
+++ b/CPTs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Desktop\COSC 329\Project\329-Learning-Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rylan\Desktop\School\3Year\COSC329\329-Learning-Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DDE524-6568-4109-A75C-D822479CC837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BF2463-0BCE-45C8-AAA6-4B7C3E9DE87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FD7F259-FAFA-4789-A3F8-7C8F0A1F6558}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="60">
   <si>
     <t>EventImportance</t>
   </si>
@@ -108,12 +108,6 @@
     <t xml:space="preserve">Not </t>
   </si>
   <si>
-    <t>pr(~NR | URG BUSY CCF)</t>
-  </si>
-  <si>
-    <t>pr(NR | URG BUSY CCF)</t>
-  </si>
-  <si>
     <t>Pr(NotBusy)</t>
   </si>
   <si>
@@ -147,12 +141,6 @@
     <t>Urgency_t</t>
   </si>
   <si>
-    <t>pr(~NR_t | NR_t-1 URG BUSY CCF)</t>
-  </si>
-  <si>
-    <t>pr(NR_t | NR_t-1 URG BUSY CCF)</t>
-  </si>
-  <si>
     <t>Actions</t>
   </si>
   <si>
@@ -199,6 +187,33 @@
   </si>
   <si>
     <t>User is mildly annoyed, but reminded</t>
+  </si>
+  <si>
+    <t>pr(~Notify | URG BUSY CCF)</t>
+  </si>
+  <si>
+    <t>pr(E-Notify | URG BUSY CCF)</t>
+  </si>
+  <si>
+    <t>pr(Pop-Notify| URG BUSY CCF)</t>
+  </si>
+  <si>
+    <t>pr(~Notify | NR_t-1 URG BUSY CCF)</t>
+  </si>
+  <si>
+    <t>pr(E-Notify | NR_t-1 URG BUSY CCF)</t>
+  </si>
+  <si>
+    <t>pr(Pop-Notify| NR t_-1 URG BUSY CCF)</t>
+  </si>
+  <si>
+    <t>Don't Notify</t>
+  </si>
+  <si>
+    <t>E-mail Notify</t>
+  </si>
+  <si>
+    <t>Pop-up Notify</t>
   </si>
 </sst>
 </file>
@@ -271,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,12 +335,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -414,16 +423,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -436,15 +444,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="6" builtinId="32"/>
     <cellStyle name="Accent6" xfId="5" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -465,28 +471,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}" name="Table1" displayName="Table1" ref="D21:E36" totalsRowShown="0" headerRowCellStyle="Accent6">
-  <autoFilter ref="D21:E36" xr:uid="{A3538EFA-96AB-40ED-BC69-DD1D3EEB1D38}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7110FBC9-9E40-49FC-871A-F08C5D9FE788}" name="pr(~NR | URG BUSY CCF)"/>
-    <tableColumn id="2" xr3:uid="{F8B689E5-AC8A-4F44-ABEA-B8AF4AC8D64A}" name="pr(NR | URG BUSY CCF)"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{ABBE58D3-A2C2-4189-9E35-0E4D3008CA68}" name="Table1513" displayName="Table1513" ref="C54:D63" totalsRowShown="0" headerRowCellStyle="Accent6">
-  <autoFilter ref="C54:D63" xr:uid="{ABBE58D3-A2C2-4189-9E35-0E4D3008CA68}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{661F071F-0927-4A71-B671-359D11626439}" name="Busyness"/>
-    <tableColumn id="2" xr3:uid="{469B943D-C5D1-4C8B-A53D-8644F8FB2382}" name="CheckedCalendarFrequency"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}" name="Table2" displayName="Table2" ref="A11:D13" totalsRowShown="0">
   <autoFilter ref="A11:D13" xr:uid="{CE2188B8-45AC-4292-A782-B7B3110FC73D}"/>
   <tableColumns count="4">
@@ -499,7 +483,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}" name="Table3" displayName="Table3" ref="A16:D18" totalsRowShown="0">
   <autoFilter ref="A16:D18" xr:uid="{617CD7E9-A887-4207-AB75-3C14FB1445F5}"/>
   <tableColumns count="4">
@@ -512,7 +496,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{96FC7849-0FF9-4907-B04B-4C1044FF8F91}" name="Table18" displayName="Table18" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3" xr:uid="{96FC7849-0FF9-4907-B04B-4C1044FF8F91}"/>
   <tableColumns count="2">
@@ -523,7 +507,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}" name="Table69" displayName="Table69" ref="A42:C43" totalsRowShown="0">
   <autoFilter ref="A42:C43" xr:uid="{41948802-5E6F-4D5B-B768-89661C1A722E}"/>
   <tableColumns count="3">
@@ -535,7 +519,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}" name="Table610" displayName="Table610" ref="A46:C47" totalsRowShown="0">
   <autoFilter ref="A46:C47" xr:uid="{430F4603-BB98-49AB-9C6E-A709BA25E0BB}"/>
   <tableColumns count="3">
@@ -547,18 +531,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BB536D8A-FC7A-4256-8B80-39CE50AA9B9C}" name="Table15" displayName="Table15" ref="B21:C30" totalsRowShown="0" headerRowCellStyle="Accent6">
-  <autoFilter ref="B21:C30" xr:uid="{BB536D8A-FC7A-4256-8B80-39CE50AA9B9C}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{366E0F95-13BA-436C-9A52-CDFC7E3E6053}" name="Busyness"/>
-    <tableColumn id="2" xr3:uid="{A4AB0B0D-C9D3-439C-9202-89885F20C2FD}" name="CheckedCalendarFrequency"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{53AFEDFA-76F0-4CDC-9DE9-D935E964C008}" name="Table10" displayName="Table10" ref="A50:C52" totalsRowShown="0">
   <autoFilter ref="A50:C52" xr:uid="{53AFEDFA-76F0-4CDC-9DE9-D935E964C008}"/>
   <tableColumns count="3">
@@ -570,12 +543,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{077D2117-07F2-49E1-B095-65940A3DA88B}" name="Table112" displayName="Table112" ref="E54:F69" totalsRowShown="0" headerRowCellStyle="Accent6">
-  <autoFilter ref="E54:F69" xr:uid="{077D2117-07F2-49E1-B095-65940A3DA88B}"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{077D2117-07F2-49E1-B095-65940A3DA88B}" name="Table112" displayName="Table112" ref="D21:F36" totalsRowShown="0" headerRowCellStyle="Accent6">
+  <autoFilter ref="D21:F36" xr:uid="{077D2117-07F2-49E1-B095-65940A3DA88B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EC3DF0CE-FF83-42EF-AE6C-6E49A337634B}" name="pr(~Notify | URG BUSY CCF)"/>
+    <tableColumn id="2" xr3:uid="{7D4D1FE0-D118-4ABA-A396-1C42F725F86F}" name="pr(E-Notify | URG BUSY CCF)"/>
+    <tableColumn id="3" xr3:uid="{1AEA6018-1169-487B-AD5E-D4220A0CF29B}" name="pr(Pop-Notify| URG BUSY CCF)"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{ABBE58D3-A2C2-4189-9E35-0E4D3008CA68}" name="Table1513" displayName="Table1513" ref="B21:C30" totalsRowShown="0" headerRowCellStyle="Accent6">
+  <autoFilter ref="B21:C30" xr:uid="{ABBE58D3-A2C2-4189-9E35-0E4D3008CA68}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EC3DF0CE-FF83-42EF-AE6C-6E49A337634B}" name="pr(~NR | URG BUSY CCF)"/>
-    <tableColumn id="2" xr3:uid="{7D4D1FE0-D118-4ABA-A396-1C42F725F86F}" name="pr(NR | URG BUSY CCF)"/>
+    <tableColumn id="1" xr3:uid="{661F071F-0927-4A71-B671-359D11626439}" name="Busyness"/>
+    <tableColumn id="2" xr3:uid="{469B943D-C5D1-4C8B-A53D-8644F8FB2382}" name="CheckedCalendarFrequency"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -880,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16022FB-2605-4D33-9734-5034D9D67958}">
   <dimension ref="A2:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +875,8 @@
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -996,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +999,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1027,7 +1013,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
@@ -1038,13 +1024,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="b">
         <v>0</v>
       </c>
@@ -1058,10 +1047,13 @@
         <v>0.95</v>
       </c>
       <c r="E22" s="11">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="b">
         <v>0</v>
       </c>
@@ -1072,13 +1064,16 @@
         <v>20</v>
       </c>
       <c r="D23" s="11">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E23" s="11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="b">
         <v>0</v>
       </c>
@@ -1089,13 +1084,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="11">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E24" s="11">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="b">
         <v>0</v>
       </c>
@@ -1106,13 +1104,16 @@
         <v>21</v>
       </c>
       <c r="D25">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E25">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+      <c r="F25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="b">
         <v>0</v>
       </c>
@@ -1123,13 +1124,16 @@
         <v>20</v>
       </c>
       <c r="D26">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="E26">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="F26">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="b">
         <v>0</v>
       </c>
@@ -1140,13 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D27">
-        <v>0.3</v>
+        <v>0.84</v>
       </c>
       <c r="E27">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="F27">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="b">
         <v>0</v>
       </c>
@@ -1157,13 +1164,16 @@
         <v>21</v>
       </c>
       <c r="D28" s="11">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="E28" s="11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="b">
         <v>0</v>
       </c>
@@ -1174,13 +1184,16 @@
         <v>20</v>
       </c>
       <c r="D29" s="11">
-        <v>0.35</v>
+        <v>0.82</v>
       </c>
       <c r="E29" s="11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="b">
         <v>0</v>
       </c>
@@ -1191,13 +1204,16 @@
         <v>19</v>
       </c>
       <c r="D30" s="11">
-        <v>0.25</v>
+        <v>0.76</v>
       </c>
       <c r="E30" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="b">
         <v>1</v>
       </c>
@@ -1208,13 +1224,19 @@
         <v>21</v>
       </c>
       <c r="D31">
-        <v>0.85</v>
+        <f>F30</f>
+        <v>0.1</v>
       </c>
       <c r="E31">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <f>E30</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F31">
+        <f>D30</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="b">
         <v>1</v>
       </c>
@@ -1225,13 +1247,19 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>0.35</v>
+        <f>F29</f>
+        <v>0.08</v>
       </c>
       <c r="E32">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <f>E29</f>
+        <v>0.1</v>
+      </c>
+      <c r="F32">
+        <f>D29</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="b">
         <v>1</v>
       </c>
@@ -1242,13 +1270,19 @@
         <v>19</v>
       </c>
       <c r="D33">
-        <v>0.2</v>
+        <f>F28</f>
+        <v>0.04</v>
       </c>
       <c r="E33">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <f>E28</f>
+        <v>0.08</v>
+      </c>
+      <c r="F33">
+        <f>D28</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="b">
         <v>1</v>
       </c>
@@ -1259,13 +1293,19 @@
         <v>21</v>
       </c>
       <c r="D34" s="11">
-        <v>0.6</v>
+        <f>F27</f>
+        <v>0.06</v>
       </c>
       <c r="E34" s="11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <f>E27</f>
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="11">
+        <f>D27</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="b">
         <v>1</v>
       </c>
@@ -1276,13 +1316,19 @@
         <v>20</v>
       </c>
       <c r="D35" s="11">
-        <v>0.3</v>
+        <f>F26</f>
+        <v>0.04</v>
       </c>
       <c r="E35" s="11">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <f>E26</f>
+        <v>0.08</v>
+      </c>
+      <c r="F35" s="11">
+        <f>D26</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="b">
         <v>1</v>
       </c>
@@ -1293,13 +1339,19 @@
         <v>19</v>
       </c>
       <c r="D36" s="11">
-        <v>0.1</v>
+        <f>F25</f>
+        <v>0.02</v>
       </c>
       <c r="E36" s="11">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <f>E25</f>
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="11">
+        <f>D25</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="b">
         <v>1</v>
       </c>
@@ -1310,13 +1362,19 @@
         <v>21</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <f>F24</f>
+        <v>0.03</v>
       </c>
       <c r="E37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <f>E24</f>
+        <v>0.08</v>
+      </c>
+      <c r="F37">
+        <f>D24</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="b">
         <v>1</v>
       </c>
@@ -1327,13 +1385,19 @@
         <v>20</v>
       </c>
       <c r="D38">
-        <v>0.1</v>
+        <f>F23</f>
+        <v>0.02</v>
       </c>
       <c r="E38">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <f>E23</f>
+        <v>0.06</v>
+      </c>
+      <c r="F38">
+        <f>D23</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="b">
         <v>1</v>
       </c>
@@ -1344,24 +1408,30 @@
         <v>19</v>
       </c>
       <c r="D39">
-        <v>0.05</v>
+        <f>F22</f>
+        <v>0.01</v>
       </c>
       <c r="E39">
+        <f>E22</f>
+        <v>0.04</v>
+      </c>
+      <c r="F39">
+        <f>D22</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
         <v>26</v>
       </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.2</v>
       </c>
@@ -1372,18 +1442,18 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
         <v>29</v>
       </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.6</v>
       </c>
@@ -1394,18 +1464,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
         <v>32</v>
       </c>
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
       <c r="C50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="b">
         <v>0</v>
       </c>
@@ -1416,7 +1486,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="b">
         <v>1</v>
       </c>
@@ -1427,1171 +1497,1418 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="10" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="E55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>0.95</v>
       </c>
-      <c r="F55" s="11">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="F56" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="F56" s="11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="E57" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="F57" s="11">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58">
-        <v>0.9</v>
-      </c>
-      <c r="F58">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B59" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>20</v>
+      <c r="D59" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E59">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="F59">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+      <c r="G59">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B60" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>0.88</v>
+      </c>
+      <c r="F60">
+        <v>0.08</v>
+      </c>
+      <c r="G60">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E60">
-        <v>0.3</v>
-      </c>
-      <c r="F60">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="F61" s="11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>0.84</v>
+      </c>
+      <c r="F61">
+        <v>0.1</v>
+      </c>
+      <c r="G61">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B62" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>20</v>
+      <c r="D62" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E62" s="11">
-        <v>0.35</v>
+        <v>0.88</v>
       </c>
       <c r="F62" s="11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B63" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="F63" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="E64" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E64">
-        <v>0.75</v>
-      </c>
-      <c r="F64">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="E65">
-        <v>0.35</v>
+        <f>G64</f>
+        <v>0.1</v>
       </c>
       <c r="F65">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+        <f>F64</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G65">
+        <f>E64</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <f>G63</f>
+        <v>0.08</v>
+      </c>
+      <c r="F66">
+        <f>F63</f>
+        <v>0.1</v>
+      </c>
+      <c r="G66">
+        <f>E63</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E66">
-        <v>0.3</v>
-      </c>
-      <c r="F66">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="F67" s="11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f>G62</f>
+        <v>0.04</v>
+      </c>
+      <c r="F67">
+        <f>F62</f>
+        <v>0.08</v>
+      </c>
+      <c r="G67">
+        <f>E62</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>20</v>
+      <c r="D68" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E68" s="11">
-        <v>0.4</v>
+        <f>G61</f>
+        <v>0.06</v>
       </c>
       <c r="F68" s="11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+        <f>F61</f>
+        <v>0.1</v>
+      </c>
+      <c r="G68" s="11">
+        <f>E61</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="11">
+        <f>G60</f>
+        <v>0.04</v>
+      </c>
+      <c r="F69" s="11">
+        <f>F60</f>
+        <v>0.08</v>
+      </c>
+      <c r="G69" s="11">
+        <f>E60</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="F69" s="11">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70">
-        <v>0.15</v>
-      </c>
-      <c r="F70">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E70" s="11">
+        <f>G59</f>
+        <v>0.02</v>
+      </c>
+      <c r="F70" s="11">
+        <f>F59</f>
+        <v>0.06</v>
+      </c>
+      <c r="G70" s="11">
+        <f>E59</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>20</v>
+      <c r="D71" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E71">
-        <v>0.1</v>
+        <f>G58</f>
+        <v>0.03</v>
       </c>
       <c r="F71">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+        <f>F58</f>
+        <v>0.08</v>
+      </c>
+      <c r="G71">
+        <f>E58</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="B72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <f>G57</f>
+        <v>0.02</v>
+      </c>
+      <c r="F72">
+        <f>F57</f>
+        <v>0.06</v>
+      </c>
+      <c r="G72">
+        <f>E57</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E72">
+      <c r="E73">
+        <f>G56</f>
+        <v>0.01</v>
+      </c>
+      <c r="F73">
+        <f>F56</f>
+        <v>0.04</v>
+      </c>
+      <c r="G73">
+        <f>E56</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="F74" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="F75" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="G75" s="11">
         <v>0.05</v>
       </c>
-      <c r="F72">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="G76" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77">
+        <v>0.8</v>
+      </c>
+      <c r="F77">
+        <v>0.12</v>
+      </c>
+      <c r="G77">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>0.76</v>
+      </c>
+      <c r="F78">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G78">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>0.72</v>
+      </c>
+      <c r="F79">
+        <v>0.16</v>
+      </c>
+      <c r="G79">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="F80" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G80" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83">
+        <f>G82</f>
+        <v>0.24</v>
+      </c>
+      <c r="F83">
+        <f>F82</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G83">
+        <f>E82</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84">
+        <f>G81</f>
+        <v>0.22</v>
+      </c>
+      <c r="F84">
+        <f>F81</f>
+        <v>0.12</v>
+      </c>
+      <c r="G84">
+        <f>E81</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <f>G80</f>
+        <v>0.2</v>
+      </c>
+      <c r="F85">
+        <f>F80</f>
+        <v>0.1</v>
+      </c>
+      <c r="G85">
+        <f>E80</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="11">
+        <f>G79</f>
+        <v>0.12</v>
+      </c>
+      <c r="F86" s="11">
+        <f>F79</f>
+        <v>0.16</v>
+      </c>
+      <c r="G86" s="11">
+        <f>E79</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="11">
+        <f>G78</f>
+        <v>0.1</v>
+      </c>
+      <c r="F87" s="11">
+        <f>F78</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G87" s="11">
+        <f>E78</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="11">
+        <f>G77</f>
+        <v>0.08</v>
+      </c>
+      <c r="F88" s="11">
+        <f>F77</f>
+        <v>0.12</v>
+      </c>
+      <c r="G88" s="11">
+        <f>E77</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89">
+        <f>G76</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F89">
+        <f>F76</f>
+        <v>0.11</v>
+      </c>
+      <c r="G89">
+        <f>E76</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90">
+        <f>G75</f>
+        <v>0.05</v>
+      </c>
+      <c r="F90">
+        <f>F75</f>
+        <v>0.09</v>
+      </c>
+      <c r="G90">
+        <f>E75</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <f>G74</f>
+        <v>0.03</v>
+      </c>
+      <c r="F91">
+        <f>F74</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G91">
+        <f>E74</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="11">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C76" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="F92" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="F93" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G93" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="D94" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G94" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F76">
-        <v>0.98</v>
-      </c>
-      <c r="G76">
+      <c r="E95">
+        <v>0.85</v>
+      </c>
+      <c r="F95">
+        <v>0.05</v>
+      </c>
+      <c r="G95">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>0.7</v>
+      </c>
+      <c r="F96">
+        <v>0.1</v>
+      </c>
+      <c r="G96">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>0.5</v>
+      </c>
+      <c r="F97">
+        <v>0.2</v>
+      </c>
+      <c r="G97">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="F98" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G98" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F99" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G99" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F100" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G100" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101">
+        <f>G100</f>
+        <v>0.6</v>
+      </c>
+      <c r="F101">
+        <f>F100</f>
+        <v>0.3</v>
+      </c>
+      <c r="G101">
+        <f>E100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <f>G99</f>
+        <v>0.4</v>
+      </c>
+      <c r="F102">
+        <f>F99</f>
+        <v>0.2</v>
+      </c>
+      <c r="G102">
+        <f>E99</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103">
+        <f>G98</f>
+        <v>0.2</v>
+      </c>
+      <c r="F103">
+        <f>F98</f>
+        <v>0.1</v>
+      </c>
+      <c r="G103">
+        <f>E98</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="11">
+        <f>G97</f>
+        <v>0.3</v>
+      </c>
+      <c r="F104" s="11">
+        <f>F97</f>
+        <v>0.2</v>
+      </c>
+      <c r="G104" s="11">
+        <f>E97</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="11">
+        <f>G96</f>
+        <v>0.2</v>
+      </c>
+      <c r="F105" s="11">
+        <f>F96</f>
+        <v>0.1</v>
+      </c>
+      <c r="G105" s="11">
+        <f>E96</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="11">
+        <f>G95</f>
+        <v>0.1</v>
+      </c>
+      <c r="F106" s="11">
+        <f>F95</f>
+        <v>0.05</v>
+      </c>
+      <c r="G106" s="11">
+        <f>E95</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B107" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107">
+        <f>G94</f>
+        <v>0.03</v>
+      </c>
+      <c r="F107">
+        <f>F94</f>
+        <v>0.08</v>
+      </c>
+      <c r="G107">
+        <f>E94</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <f>G93</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C77" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77">
+      <c r="F108">
+        <f>F93</f>
+        <v>0.06</v>
+      </c>
+      <c r="G108">
+        <f>E93</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B109" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <f>G92</f>
+        <v>0.01</v>
+      </c>
+      <c r="F109">
+        <f>F92</f>
+        <v>0.04</v>
+      </c>
+      <c r="G109">
+        <f>E92</f>
         <v>0.95</v>
-      </c>
-      <c r="G77">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C78" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78">
-        <v>0.93</v>
-      </c>
-      <c r="G78">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C79" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F79" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="G79" s="12">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C80" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G80" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C81" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="G81" s="12">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C82" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82">
-        <v>0.85</v>
-      </c>
-      <c r="G82">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C83" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83">
-        <v>0.8</v>
-      </c>
-      <c r="G83">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C84" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84">
-        <v>0.75</v>
-      </c>
-      <c r="G84">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C85" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F85" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="G85" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C86" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="G86" s="12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C87" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="G87" s="12">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C88" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88">
-        <v>0.75</v>
-      </c>
-      <c r="G88">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C89" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89">
-        <v>0.4</v>
-      </c>
-      <c r="G89">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C90" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90">
-        <v>0.3</v>
-      </c>
-      <c r="G90">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C91" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F91" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="G91" s="12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C92" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="G92" s="12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C93" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="G93" s="12">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C94" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F94">
-        <f xml:space="preserve"> G93</f>
-        <v>0.95</v>
-      </c>
-      <c r="G94">
-        <f>F93</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C95" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95">
-        <f xml:space="preserve"> G92</f>
-        <v>0.8</v>
-      </c>
-      <c r="G95">
-        <f xml:space="preserve"> F92</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C96" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96">
-        <f xml:space="preserve"> G91</f>
-        <v>0.6</v>
-      </c>
-      <c r="G96">
-        <f xml:space="preserve"> F91</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C97" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F97" s="12">
-        <f xml:space="preserve"> G90</f>
-        <v>0.7</v>
-      </c>
-      <c r="G97" s="12">
-        <f xml:space="preserve"> F90</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C98" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" s="12">
-        <f xml:space="preserve"> G89</f>
-        <v>0.6</v>
-      </c>
-      <c r="G98" s="12">
-        <f xml:space="preserve"> F89</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C99" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" s="12">
-        <f xml:space="preserve"> G88</f>
-        <v>0.25</v>
-      </c>
-      <c r="G99" s="12">
-        <f xml:space="preserve"> F88</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C100" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F100">
-        <f xml:space="preserve"> G87</f>
-        <v>0.65</v>
-      </c>
-      <c r="G100">
-        <f>F87</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C101" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F101">
-        <f xml:space="preserve"> G86</f>
-        <v>0.4</v>
-      </c>
-      <c r="G101">
-        <f>F86</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C102" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102">
-        <f xml:space="preserve"> G85</f>
-        <v>0.2</v>
-      </c>
-      <c r="G102">
-        <f xml:space="preserve"> F85</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C103" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F103" s="12">
-        <f xml:space="preserve"> G84</f>
-        <v>0.25</v>
-      </c>
-      <c r="G103" s="12">
-        <f xml:space="preserve"> F84</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C104" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" s="12">
-        <f xml:space="preserve"> G83</f>
-        <v>0.2</v>
-      </c>
-      <c r="G104" s="12">
-        <f>F83</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C105" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="12">
-        <f xml:space="preserve"> G82</f>
-        <v>0.15</v>
-      </c>
-      <c r="G105" s="12">
-        <f xml:space="preserve"> F82</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C106" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F106">
-        <f xml:space="preserve"> G81</f>
-        <v>0.15</v>
-      </c>
-      <c r="G106">
-        <f>F81</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C107" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F107">
-        <f xml:space="preserve"> G80</f>
-        <v>0.1</v>
-      </c>
-      <c r="G107">
-        <f xml:space="preserve"> F80</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C108" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108">
-        <f xml:space="preserve"> G79</f>
-        <v>0.05</v>
-      </c>
-      <c r="G108">
-        <f xml:space="preserve"> F79</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C109" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" s="12">
-        <f xml:space="preserve"> G78</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G109" s="12">
-        <f xml:space="preserve"> F78</f>
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C110" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F110" s="12">
-        <f xml:space="preserve"> G77</f>
-        <v>0.05</v>
-      </c>
-      <c r="G110" s="12">
-        <f xml:space="preserve"> F77</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C111" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="12">
-        <f xml:space="preserve"> G76</f>
-        <v>0.02</v>
-      </c>
-      <c r="G111" s="12">
-        <f>F76</f>
-        <v>0.98</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C119" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>41</v>
+      <c r="C119" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>39</v>
-      </c>
-      <c r="B120" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" t="s">
         <v>44</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" t="s">
+        <v>48</v>
+      </c>
+      <c r="E121" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" t="s">
         <v>47</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D122" t="s">
+        <v>50</v>
+      </c>
+      <c r="E122" t="s">
         <v>48</v>
-      </c>
-      <c r="E120" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C121" t="s">
-        <v>50</v>
-      </c>
-      <c r="D121" t="s">
-        <v>52</v>
-      </c>
-      <c r="E121" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C122" t="s">
-        <v>51</v>
-      </c>
-      <c r="D122" t="s">
-        <v>54</v>
-      </c>
-      <c r="E122" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="10">
+  <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2600,8 +2917,6 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>